--- a/biology/Botanique/Iris_fétide/Iris_fétide.xlsx
+++ b/biology/Botanique/Iris_fétide/Iris_fétide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris foetidissima
 L'iris fétide (Iris foetidissima) est une espèce de plante herbacée de la famille des Iridacées, vivace par un rhizome. Il est assez commun en Europe, surtout à l'ouest, où il pousse dans les talus.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Iris fétide ;
 Iris gigot ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Xiphion foetidissimum (L.) Parl., Nuov. Gen. Sp. Monocot.: 45 (1854).
 Spathula foetidissima (L.) Fourr., Ann. Soc. Linn. Lyon, n.s., 17: 163 (1869).
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iris fétide est une plante vivace de 30 à 80 cm de hauteur, comportant un rhizome épais.
 Les feuilles linéaires (pointues comme un glaive) s'élèvent à partir du rhizome en une touffe dense, persistant l'hiver. Elles sont vert foncé, luisantes et dégagent une odeur forte plus ou moins alliacée, lorsqu'on les froisse.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iris fétide se rencontre dans tout le Midi et l'Ouest et çà et là ailleurs en France. Il est présent en Angleterre, Irlande, Espagne, Portugal et Italie ainsi qu'en Afrique septentrionale.
 Il croît dans les bois et coteaux secs sur substrat généralement calcaire.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iris fétide se trouve aussi dans les jardins et fait partie de la pharmacopée du Moyen Âge. En effet, cette plante est largement citée pour soigner (voir la Flore de Fournier).
 Elle est présentée également dans les jardins ethnobotaniques.
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleurs dominantes des fleurs : bleu, brun, blanc
@@ -692,7 +716,7 @@
 Dissémination : endozoochore
 Habitat et répartition
 Habitat type : ourlets basophiles médioeuropéens, xérophiles
-Aire de répartition : méditerranéen-atlantique[1]</t>
+Aire de répartition : méditerranéen-atlantique</t>
         </is>
       </c>
     </row>
@@ -702,7 +726,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Iris_f%C3%A9tide</t>
+          <t>Iris_fétide</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -720,9 +744,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'iris fétide est réputé toxique pour le bétail et pour l'homme. Sa consommation est susceptible de provoquer des vomissements et des diarrhées parfois sanglantes. La présence d'une quinone alkylée serait responsable de cet effet[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'iris fétide est réputé toxique pour le bétail et pour l'homme. Sa consommation est susceptible de provoquer des vomissements et des diarrhées parfois sanglantes. La présence d'une quinone alkylée serait responsable de cet effet.
 </t>
         </is>
       </c>
